--- a/Relatorio Atualizado.xlsx
+++ b/Relatorio Atualizado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7365" windowWidth="19815" xWindow="390" yWindow="555"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portugues" sheetId="1" state="visible" r:id="rId1"/>
@@ -308,135 +308,136 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -731,13 +732,13 @@
   </sheetPr>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="17">
+    <row r="1" ht="15" customHeight="1" s="17">
       <c r="A1" s="45" t="inlineStr">
         <is>
           <t>PORTUGUÊS</t>
@@ -757,7 +758,7 @@
       <c r="M1" s="46" t="n"/>
       <c r="N1" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="2" s="17">
+    <row r="2" ht="15" customHeight="1" s="17">
       <c r="A2" s="4" t="n"/>
       <c r="N2" s="6" t="n"/>
     </row>
@@ -5412,8 +5413,8 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup fitToHeight="0" horizontalDpi="4294967293" orientation="landscape" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
@@ -5425,13 +5426,13 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="17">
+    <row r="1" ht="15" customHeight="1" s="17">
       <c r="A1" s="39" t="inlineStr">
         <is>
           <t>MATEMÁTICA</t>
@@ -9175,8 +9176,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup fitToHeight="0" horizontalDpi="4294967293" orientation="landscape" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
@@ -9194,14 +9195,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="17">
+    <row r="1" ht="15" customHeight="1" s="17">
       <c r="A1" s="44" t="inlineStr">
         <is>
           <t>INGLÊS</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="17">
+    <row r="2" ht="15" customHeight="1" s="17">
       <c r="A2" s="8" t="n"/>
       <c r="B2" s="8" t="n"/>
       <c r="C2" s="8" t="n"/>
@@ -13071,7 +13072,7 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup fitToHeight="0" horizontalDpi="4294967293" orientation="landscape" paperSize="9" verticalDpi="4294967293"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>